--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,34 +498,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5269</v>
+        <v>3631</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-4.253422260284424, 3.40257129073143, -12.931617259979248]</t>
+          <t>[-0.5100074112415314, 2.1183736622333527, -3.7063761949539185]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.03195700076743</v>
+        <v>4.299399845430327</v>
       </c>
       <c r="E2" t="n">
-        <v>11.31439732265882</v>
+        <v>3.310464066299402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8063306723388634</v>
+        <v>0.7699828313986596</v>
       </c>
       <c r="G2" t="n">
-        <v>5.446934212269578</v>
+        <v>2.178902139235545</v>
       </c>
       <c r="H2" t="n">
-        <v>-12.93161725997925</v>
+        <v>-3.706376194953918</v>
       </c>
       <c r="I2" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="J2" t="n">
         <v>130</v>
@@ -533,164 +533,164 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[{'ion': 1309, 'force': [-2.9148778915405273, -2.9359593391418457, -3.625190496444702], 'magnitude': 5.50076150894165, 'distance': 7.768866062164307, 'directional_contribution': 3.6428366128690968}, {'ion': 1320, 'force': [-1.0187950134277344, 6.049768924713135, -6.9975690841674805], 'magnitude': 9.306106567382812, 'distance': 5.972897052764893, 'directional_contribution': 5.528173576817856}, {'ion': 1403, 'force': [-0.3197493553161621, 0.288761705160141, -2.3088576793670654], 'magnitude': 2.3487117290496826, 'distance': 11.889242172241211, 'directional_contribution': 2.143387431225561}]</t>
+          <t>[{'ion': 1313, 'force': [-0.30617839097976685, 1.9138059616088867, -1.6903947591781616], 'magnitude': 2.571737289428711, 'distance': 11.362025260925293, 'directional_contribution': 1.3536479625365203}, {'ion': 1460, 'force': [-0.20382902026176453, 0.20456770062446594, -2.015981435775757], 'magnitude': 2.036559581756592, 'distance': 12.767929077148438, 'directional_contribution': 1.9568161976495122}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5131</v>
+        <v>3666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.9611110091209412, 1.400046467781067, -4.168585538864136]</t>
+          <t>[5.336649119853973, 0.34455977380275726, -9.397506475448608]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.501218710374659</v>
+        <v>10.81257014877868</v>
       </c>
       <c r="E3" t="n">
-        <v>4.419375340419151</v>
+        <v>5.518776645458949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9818175087189451</v>
+        <v>0.5104037772261129</v>
       </c>
       <c r="G3" t="n">
-        <v>1.698194477614303</v>
+        <v>5.347760771216416</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.168585538864136</v>
+        <v>-9.397506475448608</v>
       </c>
       <c r="I3" t="n">
+        <v>455</v>
+      </c>
+      <c r="J3" t="n">
         <v>780</v>
-      </c>
-      <c r="J3" t="n">
-        <v>130</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[{'ion': 1308, 'force': [1.0612798929214478, 1.444498062133789, -2.4021823406219482], 'magnitude': 2.9972269535064697, 'distance': 10.524687767028809, 'directional_contribution': 2.713012736925825}, {'ion': 1320, 'force': [-0.10016888380050659, -0.04445159435272217, -1.7664031982421875], 'magnitude': 1.7697994709014893, 'distance': 13.696418762207031, 'directional_contribution': 1.7063625740516983}]</t>
+          <t>[{'ion': 1316, 'force': [0.4411103129386902, 0.020791510120034218, -1.5011932849884033], 'magnitude': 1.5647977590560913, 'distance': 14.565987586975098, 'directional_contribution': 1.0833693302727547}, {'ion': 1387, 'force': [1.0603179931640625, 0.020274614915251732, -2.5148849487304688], 'magnitude': 2.729346513748169, 'distance': 11.029090881347656, 'directional_contribution': 1.6547929387803724}, {'ion': 1460, 'force': [3.8352208137512207, 0.3034936487674713, -5.381428241729736], 'magnitude': 6.615194320678711, 'distance': 7.084312915802002, 'directional_contribution': 2.780614381738402}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5399</v>
+        <v>5131</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.6102482080459595, 0.2669351100921631, -8.384076476097107]</t>
+          <t>[0.9611110091209412, 1.400046467781067, -4.168585538864136]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.410493183248418</v>
+        <v>4.501218710374659</v>
       </c>
       <c r="E4" t="n">
-        <v>8.285308395500536</v>
+        <v>4.419375340419151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9851156424456512</v>
+        <v>0.9818175087189451</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6660759929791944</v>
+        <v>1.698194477614303</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.384076476097107</v>
+        <v>-4.168585538864136</v>
       </c>
       <c r="I4" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="J4" t="n">
-        <v>1105</v>
+        <v>130</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[{'ion': 1309, 'force': [-0.98553866147995, -3.2337822914123535, -1.1632522344589233], 'magnitude': 3.575162887573242, 'distance': 9.636539459228516, 'directional_contribution': 1.5595109336639525}, {'ion': 1469, 'force': [2.148010492324829, 3.888089656829834, -3.9567387104034424], 'magnitude': 5.948694705963135, 'distance': 7.470646381378174, 'directional_contribution': 3.458867802443282}, {'ion': 2436, 'force': [-0.5522236227989197, -0.3873722553253174, -3.264085531234741], 'magnitude': 3.3330559730529785, 'distance': 9.980395317077637, 'directional_contribution': 3.2669295057374788}]</t>
+          <t>[{'ion': 1308, 'force': [1.0612798929214478, 1.444498062133789, -2.4021823406219482], 'magnitude': 2.9972269535064697, 'distance': 10.524687767028809, 'directional_contribution': 2.713012736925825}, {'ion': 1320, 'force': [-0.10016888380050659, -0.04445159435272217, -1.7664031982421875], 'magnitude': 1.7697994709014893, 'distance': 13.696418762207031, 'directional_contribution': 1.7063625740516983}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5677</v>
+        <v>4415</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+          <t>[0.11436110734939575, 1.6295432336628437, -4.317601203918457]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.16414400671556</v>
+        <v>4.616293943124576</v>
       </c>
       <c r="E5" t="n">
-        <v>13.05513052554926</v>
+        <v>4.221919814857523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9917189084903139</v>
+        <v>0.9145691038902696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9116724501931796</v>
+        <v>1.633551227617468</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.13253748416901</v>
+        <v>-4.317601203918457</v>
       </c>
       <c r="I5" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="J5" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[{'ion': 1380, 'force': [0.2080385684967041, -0.2713145911693573, -4.193719387054443], 'magnitude': 4.207633018493652, 'distance': 8.882804870605469, 'directional_contribution': 4.190613588897197}, {'ion': 1469, 'force': [-2.146965980529785, 2.0441834926605225, -3.3131890296936035], 'magnitude': 4.445826053619385, 'distance': 8.641572952270508, 'directional_contribution': 3.1642916264383114}, {'ion': 1476, 'force': [0.016993116587400436, -0.13155724108219147, -1.6357070207595825], 'magnitude': 1.641076922416687, 'distance': 14.223437309265137, 'directional_contribution': 1.6287261604187653}, {'ion': 2434, 'force': [-0.8504688143730164, -1.9593597650527954, -1.6954710483551025], 'magnitude': 2.727088212966919, 'distance': 11.033656120300293, 'directional_contribution': 1.5817235257638274}, {'ion': 2443, 'force': [2.2294209003448486, 1.050384759902954, -2.2944509983062744], 'magnitude': 3.3672142028808594, 'distance': 9.929643630981445, 'directional_contribution': 2.4897757954743494}]</t>
+          <t>[{'ion': 1316, 'force': [-0.3461155891418457, 0.052372146397829056, -2.328737497329712], 'magnitude': 2.35490083694458, 'distance': 11.873608589172363, 'directional_contribution': 2.3470950127604313}, {'ion': 1460, 'force': [0.46047669649124146, 1.5771710872650146, -1.9888637065887451], 'magnitude': 2.5797455310821533, 'distance': 11.344376564025879, 'directional_contribution': 1.874824819083032}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5331</v>
+        <v>4994</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.7527332156896591, 0.5244466662406921, -5.696695804595947]</t>
+          <t>[-1.7338434010744095, 1.567792497575283, -9.935503959655762]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.770094859691177</v>
+        <v>10.20678329285177</v>
       </c>
       <c r="E6" t="n">
-        <v>5.362863309317337</v>
+        <v>9.746318381369822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9294237685382462</v>
+        <v>0.9548863830777687</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9174157180545093</v>
+        <v>2.337559893329499</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.696695804595947</v>
+        <v>-9.935503959655762</v>
       </c>
       <c r="I6" t="n">
         <v>130</v>
@@ -701,80 +701,80 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[{'ion': 1309, 'force': [-0.5008364319801331, -1.207638144493103, -1.198835849761963], 'magnitude': 1.773819088935852, 'distance': 13.680891036987305, 'directional_contribution': 1.0259050877299867}, {'ion': 1320, 'force': [1.4149909019470215, 1.8132896423339844, -2.7240469455718994], 'magnitude': 3.565199851989746, 'distance': 9.649994850158691, 'directional_contribution': 2.8008792644006775}, {'ion': 1469, 'force': [-0.1614212542772293, -0.08120483160018921, -1.773813009262085], 'magnitude': 1.7829928398132324, 'distance': 13.645649909973145, 'directional_contribution': 1.5360788279912971}]</t>
+          <t>[{'ion': 1308, 'force': [1.8541682958602905, 1.3925756216049194, -2.6088037490844727], 'magnitude': 3.490424633026123, 'distance': 9.752813339233398, 'directional_contribution': 2.756928193262113}, {'ion': 1320, 'force': [-0.1475171595811844, -0.04048118740320206, -2.020209789276123], 'magnitude': 2.0259931087493896, 'distance': 12.80118179321289, 'directional_contribution': 1.9999990256707776}, {'ion': 1460, 'force': [-3.4404945373535156, 0.21569806337356567, -5.306490421295166], 'magnitude': 6.327904224395752, 'distance': 7.243343830108643, 'directional_contribution': 4.989391188704489}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5887</v>
+        <v>5269</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.35831569135189056, -0.3594629615545273, -9.122485280036926]</t>
+          <t>[-4.253422260284424, 3.40257129073143, -12.931617259979248]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.136593535880259</v>
+        <v>14.03195700076743</v>
       </c>
       <c r="E7" t="n">
-        <v>9.061768873467344</v>
+        <v>11.31439732265882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9918104420297268</v>
+        <v>0.8063306723388634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5075468011903285</v>
+        <v>5.446934212269578</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.122485280036926</v>
+        <v>-12.93161725997925</v>
       </c>
       <c r="I7" t="n">
-        <v>455</v>
+        <v>780</v>
       </c>
       <c r="J7" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[{'ion': 1380, 'force': [1.6709095239639282, 0.2382316142320633, -1.9508068561553955], 'magnitude': 2.5796008110046387, 'distance': 11.344694137573242, 'directional_contribution': 2.0832717418677995}, {'ion': 1476, 'force': [0.1602437049150467, -0.41130489110946655, -2.2435944080352783], 'magnitude': 2.2866055965423584, 'distance': 12.04962158203125, 'directional_contribution': 2.251481462417558}, {'ion': 2434, 'force': [-0.808508574962616, -1.3590866327285767, -1.6529823541641235], 'magnitude': 2.2876086235046387, 'distance': 12.046979904174805, 'directional_contribution': 1.5868669552284673}, {'ion': 2443, 'force': [-1.3809603452682495, 1.1726969480514526, -3.275101661682129], 'magnitude': 3.7428011894226074, 'distance': 9.418259620666504, 'directional_contribution': 3.1401487072542023}]</t>
+          <t>[{'ion': 1309, 'force': [-2.9148778915405273, -2.9359593391418457, -3.625190496444702], 'magnitude': 5.50076150894165, 'distance': 7.768866062164307, 'directional_contribution': 3.6428366128690968}, {'ion': 1320, 'force': [-1.0187950134277344, 6.049768924713135, -6.9975690841674805], 'magnitude': 9.306106567382812, 'distance': 5.972897052764893, 'directional_contribution': 5.528173576817856}, {'ion': 1403, 'force': [-0.3197493553161621, 0.288761705160141, -2.3088576793670654], 'magnitude': 2.3487117290496826, 'distance': 11.889242172241211, 'directional_contribution': 2.143387431225561}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5433</v>
+        <v>5399</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.44162964820861816, -0.36573115549981594, -4.841521263122559]</t>
+          <t>[0.6102482080459595, 0.2669351100921631, -8.384076476097107]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.875358875564747</v>
+        <v>8.410493183248418</v>
       </c>
       <c r="E8" t="n">
-        <v>4.335273272866165</v>
+        <v>8.285308395500536</v>
       </c>
       <c r="F8" t="n">
-        <v>0.889221364727531</v>
+        <v>0.9851156424456512</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5734073807338883</v>
+        <v>0.6660759929791944</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.841521263122559</v>
+        <v>-8.384076476097107</v>
       </c>
       <c r="I8" t="n">
         <v>130</v>
@@ -785,49 +785,597 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[{'ion': 1309, 'force': [-0.640687882900238, -1.2333738803863525, -1.1129107475280762], 'magnitude': 1.7805230617523193, 'distance': 13.655111312866211, 'directional_contribution': 0.551246759031236}, {'ion': 1320, 'force': [-0.537470281124115, 0.01673593558371067, 1.5264745950698853], 'magnitude': 1.6184186935424805, 'distance': 14.322657585144043, 'directional_contribution': -1.525210077137657}, {'ion': 1469, 'force': [1.1431920528411865, 1.02493155002594, -3.420396089553833], 'magnitude': 3.749197483062744, 'distance': 9.410222053527832, 'directional_contribution': 3.722558026865098}, {'ion': 2434, 'force': [-0.40666353702545166, -0.174024760723114, -1.8346890211105347], 'magnitude': 1.8872582912445068, 'distance': 13.263354301452637, 'directional_contribution': 1.586678610431468}]</t>
+          <t>[{'ion': 1309, 'force': [-0.98553866147995, -3.2337822914123535, -1.1632522344589233], 'magnitude': 3.575162887573242, 'distance': 9.636539459228516, 'directional_contribution': 1.5595109336639525}, {'ion': 1469, 'force': [2.148010492324829, 3.888089656829834, -3.9567387104034424], 'magnitude': 5.948694705963135, 'distance': 7.470646381378174, 'directional_contribution': 3.458867802443282}, {'ion': 2436, 'force': [-0.5522236227989197, -0.3873722553253174, -3.264085531234741], 'magnitude': 3.3330559730529785, 'distance': 9.980395317077637, 'directional_contribution': 3.2669295057374788}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5582</v>
+        <v>5677</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.4570380374789238, 0.5276380777359009, -7.061962246894836]</t>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.096379110880942</v>
+        <v>13.16414400671556</v>
       </c>
       <c r="E9" t="n">
-        <v>5.002407661744953</v>
+        <v>13.05513052554926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7049239596112777</v>
+        <v>0.9917189084903139</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6980585281904539</v>
+        <v>0.9116724501931796</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.061962246894836</v>
+        <v>-13.13253748416901</v>
       </c>
       <c r="I9" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
+          <t>[{'ion': 1380, 'force': [0.2080385684967041, -0.2713145911693573, -4.193719387054443], 'magnitude': 4.207633018493652, 'distance': 8.882804870605469, 'directional_contribution': 4.190613588897197}, {'ion': 1469, 'force': [-2.146965980529785, 2.0441834926605225, -3.3131890296936035], 'magnitude': 4.445826053619385, 'distance': 8.641572952270508, 'directional_contribution': 3.1642916264383114}, {'ion': 1476, 'force': [0.016993116587400436, -0.13155724108219147, -1.6357070207595825], 'magnitude': 1.641076922416687, 'distance': 14.223437309265137, 'directional_contribution': 1.6287261604187653}, {'ion': 2434, 'force': [-0.8504688143730164, -1.9593597650527954, -1.6954710483551025], 'magnitude': 2.727088212966919, 'distance': 11.033656120300293, 'directional_contribution': 1.5817235257638274}, {'ion': 2443, 'force': [2.2294209003448486, 1.050384759902954, -2.2944509983062744], 'magnitude': 3.3672142028808594, 'distance': 9.929643630981445, 'directional_contribution': 2.4897757954743494}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.7527332156896591, 0.5244466662406921, -5.696695804595947]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.770094859691177</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.362863309317337</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9294237685382462</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9174157180545093</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-5.696695804595947</v>
+      </c>
+      <c r="I10" t="n">
+        <v>130</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1105</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[{'ion': 1309, 'force': [-0.5008364319801331, -1.207638144493103, -1.198835849761963], 'magnitude': 1.773819088935852, 'distance': 13.680891036987305, 'directional_contribution': 1.0259050877299867}, {'ion': 1320, 'force': [1.4149909019470215, 1.8132896423339844, -2.7240469455718994], 'magnitude': 3.565199851989746, 'distance': 9.649994850158691, 'directional_contribution': 2.8008792644006775}, {'ion': 1469, 'force': [-0.1614212542772293, -0.08120483160018921, -1.773813009262085], 'magnitude': 1.7829928398132324, 'distance': 13.645649909973145, 'directional_contribution': 1.5360788279912971}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5887</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.35831569135189056, -0.3594629615545273, -9.122485280036926]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9.136593535880259</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.061768873467344</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9918104420297268</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5075468011903285</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-9.122485280036926</v>
+      </c>
+      <c r="I11" t="n">
+        <v>455</v>
+      </c>
+      <c r="J11" t="n">
+        <v>780</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[{'ion': 1380, 'force': [1.6709095239639282, 0.2382316142320633, -1.9508068561553955], 'magnitude': 2.5796008110046387, 'distance': 11.344694137573242, 'directional_contribution': 2.0832717418677995}, {'ion': 1476, 'force': [0.1602437049150467, -0.41130489110946655, -2.2435944080352783], 'magnitude': 2.2866055965423584, 'distance': 12.04962158203125, 'directional_contribution': 2.251481462417558}, {'ion': 2434, 'force': [-0.808508574962616, -1.3590866327285767, -1.6529823541641235], 'magnitude': 2.2876086235046387, 'distance': 12.046979904174805, 'directional_contribution': 1.5868669552284673}, {'ion': 2443, 'force': [-1.3809603452682495, 1.1726969480514526, -3.275101661682129], 'magnitude': 3.7428011894226074, 'distance': 9.418259620666504, 'directional_contribution': 3.1401487072542023}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-0.44162964820861816, -0.36573115549981594, -4.841521263122559]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.875358875564747</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.335273272866165</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.889221364727531</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5734073807338883</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4.841521263122559</v>
+      </c>
+      <c r="I12" t="n">
+        <v>130</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1105</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[{'ion': 1309, 'force': [-0.640687882900238, -1.2333738803863525, -1.1129107475280762], 'magnitude': 1.7805230617523193, 'distance': 13.655111312866211, 'directional_contribution': 0.551246759031236}, {'ion': 1320, 'force': [-0.537470281124115, 0.01673593558371067, 1.5264745950698853], 'magnitude': 1.6184186935424805, 'distance': 14.322657585144043, 'directional_contribution': -1.525210077137657}, {'ion': 1469, 'force': [1.1431920528411865, 1.02493155002594, -3.420396089553833], 'magnitude': 3.749197483062744, 'distance': 9.410222053527832, 'directional_contribution': 3.722558026865098}, {'ion': 2434, 'force': [-0.40666353702545166, -0.174024760723114, -1.8346890211105347], 'magnitude': 1.8872582912445068, 'distance': 13.263354301452637, 'directional_contribution': 1.586678610431468}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>130</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[{'ion': 1355, 'force': [-3.9302902221679688, 0.5823214054107666, -2.16516375541687], 'magnitude': 4.524844169616699, 'distance': 8.565786361694336, 'directional_contribution': 1.4836942393599388}, {'ion': 1380, 'force': [1.0140454769134521, 2.1479642391204834, -2.2929553985595703], 'magnitude': 3.301466703414917, 'distance': 10.02802848815918, 'directional_contribution': 2.4052618123779608}, {'ion': 1443, 'force': [-0.3812868595123291, 0.13104836642742157, -2.2599120140075684], 'magnitude': 2.2955949306488037, 'distance': 12.026005744934082, 'directional_contribution': 2.165031745706639}, {'ion': 1476, 'force': [0.008695846423506737, -2.490915298461914, -1.944529414176941], 'magnitude': 3.1600520610809326, 'distance': 10.249954223632812, 'directional_contribution': 1.946095027256202}, {'ion': 2443, 'force': [-1.4861036539077759, 1.5667755603790283, -1.6444870233535767], 'magnitude': 2.7143373489379883, 'distance': 11.059541702270508, 'directional_contribution': 1.3611262943963895}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-0.4570380374789238, 0.5276380777359009, -7.061962246894836]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7.096379110880942</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.002407661744953</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7049239596112777</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6980585281904539</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-7.061962246894836</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1105</v>
+      </c>
+      <c r="J14" t="n">
+        <v>130</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>[{'ion': 1309, 'force': [0.9512708783149719, 0.9681544303894043, -2.003573179244995], 'magnitude': 2.420029878616333, 'distance': 11.71274471282959, 'directional_contribution': 1.384350614990204}, {'ion': 1469, 'force': [-1.059220314025879, 0.999154806137085, -1.5712475776672363], 'magnitude': 2.1422131061553955, 'distance': 12.449092864990234, 'directional_contribution': 0.30377723401855405}, {'ion': 2434, 'force': [-0.2705686688423157, -1.578347086906433, -1.934159755706787], 'magnitude': 2.511047840118408, 'distance': 11.498509407043457, 'directional_contribution': 2.218055772580776}, {'ion': 2443, 'force': [-0.07851993292570114, 0.13867592811584473, -1.5529817342758179], 'magnitude': 1.5611369609832764, 'distance': 14.58305549621582, 'directional_contribution': 1.096223878320914}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1105</v>
+      </c>
+      <c r="J15" t="n">
+        <v>130</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [-0.059498030692338943, -0.12091635167598724, -1.616925835609436], 'magnitude': 1.6225320100784302, 'distance': 14.30449104309082, 'directional_contribution': 1.500647116887409}, {'ion': 1355, 'force': [-0.5657582879066467, -1.950833797454834, -1.4841245412826538], 'magnitude': 2.5156431198120117, 'distance': 11.48800277709961, 'directional_contribution': 1.027019318710666}, {'ion': 1380, 'force': [2.384357213973999, 0.7816745042800903, -2.3590643405914307], 'magnitude': 3.4440324306488037, 'distance': 9.818280220031738, 'directional_contribution': 1.8594900751157475}, {'ion': 1443, 'force': [-0.04559451341629028, -0.2811105251312256, -4.0620198249816895], 'magnitude': 4.071990489959717, 'distance': 9.029541015625, 'directional_contribution': 3.7515445974993913}, {'ion': 1476, 'force': [-1.0176137685775757, 2.565093994140625, -1.9819310903549194], 'magnitude': 3.397542715072632, 'distance': 9.885225296020508, 'directional_contribution': 2.7508062114558847}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6424</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-5.876048386096954, -0.526165135204792, -13.427483797073364]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14.6663599951019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.48542529128526</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8512967972595105</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.899558829714109</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-13.42748379707336</v>
+      </c>
+      <c r="I16" t="n">
+        <v>780</v>
+      </c>
+      <c r="J16" t="n">
+        <v>130</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [-0.20322829484939575, -0.07535362988710403, -2.3830111026763916], 'magnitude': 2.392848014831543, 'distance': 11.779083251953125, 'directional_contribution': 2.2885780482695894}, {'ion': 1355, 'force': [-3.233201503753662, 1.434584140777588, -6.807455062866211], 'magnitude': 7.671575546264648, 'distance': 6.578498363494873, 'directional_contribution': 5.855880760021908}, {'ion': 1476, 'force': [-2.4396185874938965, -1.8853956460952759, -4.237017631530762], 'magnitude': 5.2401123046875, 'distance': 7.959737300872803, 'directional_contribution': 4.340966490822918}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I17" t="n">
+        <v>455</v>
+      </c>
+      <c r="J17" t="n">
+        <v>130</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [1.6464307308197021, 0.5983303785324097, -2.400447130203247], 'magnitude': 2.9716796875, 'distance': 10.569830894470215, 'directional_contribution': 1.741922029556168}, {'ion': 1330, 'force': [-0.19868579506874084, -0.18994195759296417, -1.8839623928070068], 'magnitude': 1.903908610343933, 'distance': 13.205230712890625, 'directional_contribution': 1.282088894140918}, {'ion': 1341, 'force': [-2.268233299255371, 0.35912325978279114, -2.317638874053955], 'magnitude': 3.26271390914917, 'distance': 10.087407112121582, 'directional_contribution': 2.432269379989446}, {'ion': 1355, 'force': [0.4079889953136444, -2.1761250495910645, -2.2527151107788086], 'magnitude': 3.1585915088653564, 'distance': 10.252323150634766, 'directional_contribution': 0.11252181194377409}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [1.9448966979980469, 1.4587265253067017, -2.7193212509155273], 'magnitude': 3.6476311683654785, 'distance': 9.54033374786377, 'directional_contribution': 2.075353264181299}, {'ion': 1330, 'force': [-2.0129354000091553, -1.6208391189575195, -2.2622406482696533], 'magnitude': 3.4346413612365723, 'distance': 9.831693649291992, 'directional_contribution': 2.720317034415509}, {'ion': 1341, 'force': [-2.0574705600738525, 2.4868741035461426, -4.053411483764648], 'magnitude': 5.181493282318115, 'distance': 8.00463581085205, 'directional_contribution': 3.183894690792015}, {'ion': 1465, 'force': [-0.2258387804031372, 0.05245503783226013, -2.232218027114868], 'magnitude': 2.2442264556884766, 'distance': 12.162859916687012, 'directional_contribution': 2.118331919405112}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I19" t="n">
+        <v>130</v>
+      </c>
+      <c r="J19" t="n">
+        <v>780</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [-0.1917954683303833, -0.1543402522802353, -2.0611162185668945], 'magnitude': 2.0757665634155273, 'distance': 12.646775245666504, 'directional_contribution': 2.0703705491872575}, {'ion': 1355, 'force': [-0.14370736479759216, -3.0303430557250977, -2.2741732597351074], 'magnitude': 3.7915029525756836, 'distance': 9.357575416564941, 'directional_contribution': 2.2995068004308017}, {'ion': 1380, 'force': [2.4541378021240234, 0.7991290092468262, -2.9831364154815674], 'magnitude': 3.9446804523468018, 'distance': 9.174093246459961, 'directional_contribution': 2.657685430531701}, {'ion': 1476, 'force': [-0.9842002391815186, 4.096344470977783, -3.72086238861084], 'magnitude': 5.620810031890869, 'distance': 7.685455322265625, 'directional_contribution': 3.779051279401563}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I20" t="n">
+        <v>780</v>
+      </c>
+      <c r="J20" t="n">
+        <v>130</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [2.187598705291748, -1.0299091339111328, -3.23899507522583], 'magnitude': 4.041954040527344, 'distance': 9.063029289245605, 'directional_contribution': 3.0466668343385663}, {'ion': 1330, 'force': [0.8913397192955017, -4.380086421966553, -2.4580156803131104], 'magnitude': 5.101125717163086, 'distance': 8.067445755004883, 'directional_contribution': 3.694977243683372}, {'ion': 1359, 'force': [-4.05047082901001, -1.0605835914611816, -2.6539769172668457], 'magnitude': 4.957292079925537, 'distance': 8.183645248413086, 'directional_contribution': 3.4059140049644583}, {'ion': 1374, 'force': [-0.5644397139549255, 4.903802871704102, -4.149296760559082], 'magnitude': 6.448452472686768, 'distance': 7.175320148468018, 'directional_contribution': 2.1807555840889954}, {'ion': 1400, 'force': [-0.15616579353809357, 0.06276772916316986, -1.9855877161026], 'magnitude': 1.9927082061767578, 'distance': 12.907649993896484, 'directional_contribution': 1.835480567768402}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1105</v>
+      </c>
+      <c r="J21" t="n">
+        <v>130</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [1.3304719924926758, 2.534085750579834, -3.0161702632904053], 'magnitude': 4.158008098602295, 'distance': 8.935654640197754, 'directional_contribution': 2.1199485434684107}, {'ion': 1330, 'force': [-1.1526480913162231, -1.327029824256897, -1.222315788269043], 'magnitude': 2.14094877243042, 'distance': 12.452768325805664, 'directional_contribution': 1.229298551084618}, {'ion': 1341, 'force': [1.0839828252792358, -3.6219260692596436, -5.257373809814453], 'magnitude': 6.475595951080322, 'distance': 7.160265922546387, 'directional_contribution': 6.289578334971061}, {'ion': 1359, 'force': [-0.6143161058425903, 0.11554005742073059, -2.7238833904266357], 'magnitude': 2.794686794281006, 'distance': 10.899396896362305, 'directional_contribution': 2.1818159393197263}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I22" t="n">
+        <v>780</v>
+      </c>
+      <c r="J22" t="n">
+        <v>780</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[{'ion': 1327, 'force': [1.786834716796875, -1.1380722522735596, -1.6180031299591064], 'magnitude': 2.6656932830810547, 'distance': 11.159993171691895, 'directional_contribution': 0.21509858782518876}, {'ion': 1330, 'force': [1.8898179531097412, -2.7097582817077637, -1.080597162246704], 'magnitude': 3.4759016036987305, 'distance': 9.77316665649414, 'directional_contribution': -0.5518350296001984}, {'ion': 1359, 'force': [-0.17082582414150238, -6.117379188537598, -3.2495322227478027], 'magnitude': 6.928995132446289, 'distance': 6.922037124633789, 'directional_contribution': 1.7661657792673688}, {'ion': 1400, 'force': [0.3653297424316406, -0.2851882576942444, -2.4480199813842773], 'magnitude': 2.4915053844451904, 'distance': 11.543516159057617, 'directional_contribution': 1.7991214593189806}]</t>
         </is>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>next_closest_residue</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -531,11 +526,6 @@
         <v>130</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[{'ion': 1313, 'force': [-0.30617839097976685, 1.9138059616088867, -1.6903947591781616], 'magnitude': 2.571737289428711, 'distance': 11.362025260925293, 'directional_contribution': 1.3536479625365203}, {'ion': 1460, 'force': [-0.20382902026176453, 0.20456770062446594, -2.015981435775757], 'magnitude': 2.036559581756592, 'distance': 12.767929077148438, 'directional_contribution': 1.9568161976495122}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,11 +563,6 @@
         <v>780</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[{'ion': 1316, 'force': [0.4411103129386902, 0.020791510120034218, -1.5011932849884033], 'magnitude': 1.5647977590560913, 'distance': 14.565987586975098, 'directional_contribution': 1.0833693302727547}, {'ion': 1387, 'force': [1.0603179931640625, 0.020274614915251732, -2.5148849487304688], 'magnitude': 2.729346513748169, 'distance': 11.029090881347656, 'directional_contribution': 1.6547929387803724}, {'ion': 1460, 'force': [3.8352208137512207, 0.3034936487674713, -5.381428241729736], 'magnitude': 6.615194320678711, 'distance': 7.084312915802002, 'directional_contribution': 2.780614381738402}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -615,11 +600,6 @@
         <v>130</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[{'ion': 1308, 'force': [1.0612798929214478, 1.444498062133789, -2.4021823406219482], 'magnitude': 2.9972269535064697, 'distance': 10.524687767028809, 'directional_contribution': 2.713012736925825}, {'ion': 1320, 'force': [-0.10016888380050659, -0.04445159435272217, -1.7664031982421875], 'magnitude': 1.7697994709014893, 'distance': 13.696418762207031, 'directional_contribution': 1.7063625740516983}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -657,11 +637,6 @@
         <v>130</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[{'ion': 1316, 'force': [-0.3461155891418457, 0.052372146397829056, -2.328737497329712], 'magnitude': 2.35490083694458, 'distance': 11.873608589172363, 'directional_contribution': 2.3470950127604313}, {'ion': 1460, 'force': [0.46047669649124146, 1.5771710872650146, -1.9888637065887451], 'magnitude': 2.5797455310821533, 'distance': 11.344376564025879, 'directional_contribution': 1.874824819083032}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -699,11 +674,6 @@
         <v>1105</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[{'ion': 1308, 'force': [1.8541682958602905, 1.3925756216049194, -2.6088037490844727], 'magnitude': 3.490424633026123, 'distance': 9.752813339233398, 'directional_contribution': 2.756928193262113}, {'ion': 1320, 'force': [-0.1475171595811844, -0.04048118740320206, -2.020209789276123], 'magnitude': 2.0259931087493896, 'distance': 12.80118179321289, 'directional_contribution': 1.9999990256707776}, {'ion': 1460, 'force': [-3.4404945373535156, 0.21569806337356567, -5.306490421295166], 'magnitude': 6.327904224395752, 'distance': 7.243343830108643, 'directional_contribution': 4.989391188704489}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -741,11 +711,6 @@
         <v>130</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[{'ion': 1309, 'force': [-2.9148778915405273, -2.9359593391418457, -3.625190496444702], 'magnitude': 5.50076150894165, 'distance': 7.768866062164307, 'directional_contribution': 3.6428366128690968}, {'ion': 1320, 'force': [-1.0187950134277344, 6.049768924713135, -6.9975690841674805], 'magnitude': 9.306106567382812, 'distance': 5.972897052764893, 'directional_contribution': 5.528173576817856}, {'ion': 1403, 'force': [-0.3197493553161621, 0.288761705160141, -2.3088576793670654], 'magnitude': 2.3487117290496826, 'distance': 11.889242172241211, 'directional_contribution': 2.143387431225561}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -783,11 +748,6 @@
         <v>1105</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[{'ion': 1309, 'force': [-0.98553866147995, -3.2337822914123535, -1.1632522344589233], 'magnitude': 3.575162887573242, 'distance': 9.636539459228516, 'directional_contribution': 1.5595109336639525}, {'ion': 1469, 'force': [2.148010492324829, 3.888089656829834, -3.9567387104034424], 'magnitude': 5.948694705963135, 'distance': 7.470646381378174, 'directional_contribution': 3.458867802443282}, {'ion': 2436, 'force': [-0.5522236227989197, -0.3873722553253174, -3.264085531234741], 'magnitude': 3.3330559730529785, 'distance': 9.980395317077637, 'directional_contribution': 3.2669295057374788}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -825,11 +785,6 @@
         <v>780</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[{'ion': 1380, 'force': [0.2080385684967041, -0.2713145911693573, -4.193719387054443], 'magnitude': 4.207633018493652, 'distance': 8.882804870605469, 'directional_contribution': 4.190613588897197}, {'ion': 1469, 'force': [-2.146965980529785, 2.0441834926605225, -3.3131890296936035], 'magnitude': 4.445826053619385, 'distance': 8.641572952270508, 'directional_contribution': 3.1642916264383114}, {'ion': 1476, 'force': [0.016993116587400436, -0.13155724108219147, -1.6357070207595825], 'magnitude': 1.641076922416687, 'distance': 14.223437309265137, 'directional_contribution': 1.6287261604187653}, {'ion': 2434, 'force': [-0.8504688143730164, -1.9593597650527954, -1.6954710483551025], 'magnitude': 2.727088212966919, 'distance': 11.033656120300293, 'directional_contribution': 1.5817235257638274}, {'ion': 2443, 'force': [2.2294209003448486, 1.050384759902954, -2.2944509983062744], 'magnitude': 3.3672142028808594, 'distance': 9.929643630981445, 'directional_contribution': 2.4897757954743494}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,11 +822,6 @@
         <v>1105</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[{'ion': 1309, 'force': [-0.5008364319801331, -1.207638144493103, -1.198835849761963], 'magnitude': 1.773819088935852, 'distance': 13.680891036987305, 'directional_contribution': 1.0259050877299867}, {'ion': 1320, 'force': [1.4149909019470215, 1.8132896423339844, -2.7240469455718994], 'magnitude': 3.565199851989746, 'distance': 9.649994850158691, 'directional_contribution': 2.8008792644006775}, {'ion': 1469, 'force': [-0.1614212542772293, -0.08120483160018921, -1.773813009262085], 'magnitude': 1.7829928398132324, 'distance': 13.645649909973145, 'directional_contribution': 1.5360788279912971}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -909,11 +859,6 @@
         <v>780</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[{'ion': 1380, 'force': [1.6709095239639282, 0.2382316142320633, -1.9508068561553955], 'magnitude': 2.5796008110046387, 'distance': 11.344694137573242, 'directional_contribution': 2.0832717418677995}, {'ion': 1476, 'force': [0.1602437049150467, -0.41130489110946655, -2.2435944080352783], 'magnitude': 2.2866055965423584, 'distance': 12.04962158203125, 'directional_contribution': 2.251481462417558}, {'ion': 2434, 'force': [-0.808508574962616, -1.3590866327285767, -1.6529823541641235], 'magnitude': 2.2876086235046387, 'distance': 12.046979904174805, 'directional_contribution': 1.5868669552284673}, {'ion': 2443, 'force': [-1.3809603452682495, 1.1726969480514526, -3.275101661682129], 'magnitude': 3.7428011894226074, 'distance': 9.418259620666504, 'directional_contribution': 3.1401487072542023}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -951,11 +896,6 @@
         <v>1105</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[{'ion': 1309, 'force': [-0.640687882900238, -1.2333738803863525, -1.1129107475280762], 'magnitude': 1.7805230617523193, 'distance': 13.655111312866211, 'directional_contribution': 0.551246759031236}, {'ion': 1320, 'force': [-0.537470281124115, 0.01673593558371067, 1.5264745950698853], 'magnitude': 1.6184186935424805, 'distance': 14.322657585144043, 'directional_contribution': -1.525210077137657}, {'ion': 1469, 'force': [1.1431920528411865, 1.02493155002594, -3.420396089553833], 'magnitude': 3.749197483062744, 'distance': 9.410222053527832, 'directional_contribution': 3.722558026865098}, {'ion': 2434, 'force': [-0.40666353702545166, -0.174024760723114, -1.8346890211105347], 'magnitude': 1.8872582912445068, 'distance': 13.263354301452637, 'directional_contribution': 1.586678610431468}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -995,11 +935,6 @@
         <v>130</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[{'ion': 1355, 'force': [-3.9302902221679688, 0.5823214054107666, -2.16516375541687], 'magnitude': 4.524844169616699, 'distance': 8.565786361694336, 'directional_contribution': 1.4836942393599388}, {'ion': 1380, 'force': [1.0140454769134521, 2.1479642391204834, -2.2929553985595703], 'magnitude': 3.301466703414917, 'distance': 10.02802848815918, 'directional_contribution': 2.4052618123779608}, {'ion': 1443, 'force': [-0.3812868595123291, 0.13104836642742157, -2.2599120140075684], 'magnitude': 2.2955949306488037, 'distance': 12.026005744934082, 'directional_contribution': 2.165031745706639}, {'ion': 1476, 'force': [0.008695846423506737, -2.490915298461914, -1.944529414176941], 'magnitude': 3.1600520610809326, 'distance': 10.249954223632812, 'directional_contribution': 1.946095027256202}, {'ion': 2443, 'force': [-1.4861036539077759, 1.5667755603790283, -1.6444870233535767], 'magnitude': 2.7143373489379883, 'distance': 11.059541702270508, 'directional_contribution': 1.3611262943963895}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1037,11 +972,6 @@
         <v>130</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[{'ion': 1309, 'force': [0.9512708783149719, 0.9681544303894043, -2.003573179244995], 'magnitude': 2.420029878616333, 'distance': 11.71274471282959, 'directional_contribution': 1.384350614990204}, {'ion': 1469, 'force': [-1.059220314025879, 0.999154806137085, -1.5712475776672363], 'magnitude': 2.1422131061553955, 'distance': 12.449092864990234, 'directional_contribution': 0.30377723401855405}, {'ion': 2434, 'force': [-0.2705686688423157, -1.578347086906433, -1.934159755706787], 'magnitude': 2.511047840118408, 'distance': 11.498509407043457, 'directional_contribution': 2.218055772580776}, {'ion': 2443, 'force': [-0.07851993292570114, 0.13867592811584473, -1.5529817342758179], 'magnitude': 1.5611369609832764, 'distance': 14.58305549621582, 'directional_contribution': 1.096223878320914}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1079,11 +1009,6 @@
         <v>130</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [-0.059498030692338943, -0.12091635167598724, -1.616925835609436], 'magnitude': 1.6225320100784302, 'distance': 14.30449104309082, 'directional_contribution': 1.500647116887409}, {'ion': 1355, 'force': [-0.5657582879066467, -1.950833797454834, -1.4841245412826538], 'magnitude': 2.5156431198120117, 'distance': 11.48800277709961, 'directional_contribution': 1.027019318710666}, {'ion': 1380, 'force': [2.384357213973999, 0.7816745042800903, -2.3590643405914307], 'magnitude': 3.4440324306488037, 'distance': 9.818280220031738, 'directional_contribution': 1.8594900751157475}, {'ion': 1443, 'force': [-0.04559451341629028, -0.2811105251312256, -4.0620198249816895], 'magnitude': 4.071990489959717, 'distance': 9.029541015625, 'directional_contribution': 3.7515445974993913}, {'ion': 1476, 'force': [-1.0176137685775757, 2.565093994140625, -1.9819310903549194], 'magnitude': 3.397542715072632, 'distance': 9.885225296020508, 'directional_contribution': 2.7508062114558847}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1121,11 +1046,6 @@
         <v>130</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [-0.20322829484939575, -0.07535362988710403, -2.3830111026763916], 'magnitude': 2.392848014831543, 'distance': 11.779083251953125, 'directional_contribution': 2.2885780482695894}, {'ion': 1355, 'force': [-3.233201503753662, 1.434584140777588, -6.807455062866211], 'magnitude': 7.671575546264648, 'distance': 6.578498363494873, 'directional_contribution': 5.855880760021908}, {'ion': 1476, 'force': [-2.4396185874938965, -1.8853956460952759, -4.237017631530762], 'magnitude': 5.2401123046875, 'distance': 7.959737300872803, 'directional_contribution': 4.340966490822918}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1163,11 +1083,6 @@
         <v>130</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [1.6464307308197021, 0.5983303785324097, -2.400447130203247], 'magnitude': 2.9716796875, 'distance': 10.569830894470215, 'directional_contribution': 1.741922029556168}, {'ion': 1330, 'force': [-0.19868579506874084, -0.18994195759296417, -1.8839623928070068], 'magnitude': 1.903908610343933, 'distance': 13.205230712890625, 'directional_contribution': 1.282088894140918}, {'ion': 1341, 'force': [-2.268233299255371, 0.35912325978279114, -2.317638874053955], 'magnitude': 3.26271390914917, 'distance': 10.087407112121582, 'directional_contribution': 2.432269379989446}, {'ion': 1355, 'force': [0.4079889953136444, -2.1761250495910645, -2.2527151107788086], 'magnitude': 3.1585915088653564, 'distance': 10.252323150634766, 'directional_contribution': 0.11252181194377409}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1205,11 +1120,6 @@
         <v>130</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [1.9448966979980469, 1.4587265253067017, -2.7193212509155273], 'magnitude': 3.6476311683654785, 'distance': 9.54033374786377, 'directional_contribution': 2.075353264181299}, {'ion': 1330, 'force': [-2.0129354000091553, -1.6208391189575195, -2.2622406482696533], 'magnitude': 3.4346413612365723, 'distance': 9.831693649291992, 'directional_contribution': 2.720317034415509}, {'ion': 1341, 'force': [-2.0574705600738525, 2.4868741035461426, -4.053411483764648], 'magnitude': 5.181493282318115, 'distance': 8.00463581085205, 'directional_contribution': 3.183894690792015}, {'ion': 1465, 'force': [-0.2258387804031372, 0.05245503783226013, -2.232218027114868], 'magnitude': 2.2442264556884766, 'distance': 12.162859916687012, 'directional_contribution': 2.118331919405112}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1247,11 +1157,6 @@
         <v>780</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [-0.1917954683303833, -0.1543402522802353, -2.0611162185668945], 'magnitude': 2.0757665634155273, 'distance': 12.646775245666504, 'directional_contribution': 2.0703705491872575}, {'ion': 1355, 'force': [-0.14370736479759216, -3.0303430557250977, -2.2741732597351074], 'magnitude': 3.7915029525756836, 'distance': 9.357575416564941, 'directional_contribution': 2.2995068004308017}, {'ion': 1380, 'force': [2.4541378021240234, 0.7991290092468262, -2.9831364154815674], 'magnitude': 3.9446804523468018, 'distance': 9.174093246459961, 'directional_contribution': 2.657685430531701}, {'ion': 1476, 'force': [-0.9842002391815186, 4.096344470977783, -3.72086238861084], 'magnitude': 5.620810031890869, 'distance': 7.685455322265625, 'directional_contribution': 3.779051279401563}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1289,11 +1194,6 @@
         <v>130</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [2.187598705291748, -1.0299091339111328, -3.23899507522583], 'magnitude': 4.041954040527344, 'distance': 9.063029289245605, 'directional_contribution': 3.0466668343385663}, {'ion': 1330, 'force': [0.8913397192955017, -4.380086421966553, -2.4580156803131104], 'magnitude': 5.101125717163086, 'distance': 8.067445755004883, 'directional_contribution': 3.694977243683372}, {'ion': 1359, 'force': [-4.05047082901001, -1.0605835914611816, -2.6539769172668457], 'magnitude': 4.957292079925537, 'distance': 8.183645248413086, 'directional_contribution': 3.4059140049644583}, {'ion': 1374, 'force': [-0.5644397139549255, 4.903802871704102, -4.149296760559082], 'magnitude': 6.448452472686768, 'distance': 7.175320148468018, 'directional_contribution': 2.1807555840889954}, {'ion': 1400, 'force': [-0.15616579353809357, 0.06276772916316986, -1.9855877161026], 'magnitude': 1.9927082061767578, 'distance': 12.907649993896484, 'directional_contribution': 1.835480567768402}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1331,11 +1231,6 @@
         <v>130</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [1.3304719924926758, 2.534085750579834, -3.0161702632904053], 'magnitude': 4.158008098602295, 'distance': 8.935654640197754, 'directional_contribution': 2.1199485434684107}, {'ion': 1330, 'force': [-1.1526480913162231, -1.327029824256897, -1.222315788269043], 'magnitude': 2.14094877243042, 'distance': 12.452768325805664, 'directional_contribution': 1.229298551084618}, {'ion': 1341, 'force': [1.0839828252792358, -3.6219260692596436, -5.257373809814453], 'magnitude': 6.475595951080322, 'distance': 7.160265922546387, 'directional_contribution': 6.289578334971061}, {'ion': 1359, 'force': [-0.6143161058425903, 0.11554005742073059, -2.7238833904266357], 'magnitude': 2.794686794281006, 'distance': 10.899396896362305, 'directional_contribution': 2.1818159393197263}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1373,11 +1268,6 @@
         <v>780</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>[{'ion': 1327, 'force': [1.786834716796875, -1.1380722522735596, -1.6180031299591064], 'magnitude': 2.6656932830810547, 'distance': 11.159993171691895, 'directional_contribution': 0.21509858782518876}, {'ion': 1330, 'force': [1.8898179531097412, -2.7097582817077637, -1.080597162246704], 'magnitude': 3.4759016036987305, 'distance': 9.77316665649414, 'directional_contribution': -0.5518350296001984}, {'ion': 1359, 'force': [-0.17082582414150238, -6.117379188537598, -3.2495322227478027], 'magnitude': 6.928995132446289, 'distance': 6.922037124633789, 'directional_contribution': 1.7661657792673688}, {'ion': 1400, 'force': [0.3653297424316406, -0.2851882576942444, -2.4480199813842773], 'magnitude': 2.4915053844451904, 'distance': 11.543516159057617, 'directional_contribution': 1.7991214593189806}]</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,21 +474,6 @@
           <t>axial_force</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>before_closest_residue</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closest_residue</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>next_closest_residue</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -519,13 +504,6 @@
       <c r="H2" t="n">
         <v>-3.706376194953918</v>
       </c>
-      <c r="I2" t="n">
-        <v>130</v>
-      </c>
-      <c r="J2" t="n">
-        <v>130</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,13 +534,6 @@
       <c r="H3" t="n">
         <v>-9.397506475448608</v>
       </c>
-      <c r="I3" t="n">
-        <v>455</v>
-      </c>
-      <c r="J3" t="n">
-        <v>780</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,13 +564,6 @@
       <c r="H4" t="n">
         <v>-4.168585538864136</v>
       </c>
-      <c r="I4" t="n">
-        <v>780</v>
-      </c>
-      <c r="J4" t="n">
-        <v>130</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -630,13 +594,6 @@
       <c r="H5" t="n">
         <v>-4.317601203918457</v>
       </c>
-      <c r="I5" t="n">
-        <v>130</v>
-      </c>
-      <c r="J5" t="n">
-        <v>130</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -667,13 +624,6 @@
       <c r="H6" t="n">
         <v>-9.935503959655762</v>
       </c>
-      <c r="I6" t="n">
-        <v>130</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -704,13 +654,6 @@
       <c r="H7" t="n">
         <v>-12.93161725997925</v>
       </c>
-      <c r="I7" t="n">
-        <v>780</v>
-      </c>
-      <c r="J7" t="n">
-        <v>130</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -741,13 +684,6 @@
       <c r="H8" t="n">
         <v>-8.384076476097107</v>
       </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -778,13 +714,6 @@
       <c r="H9" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I9" t="n">
-        <v>780</v>
-      </c>
-      <c r="J9" t="n">
-        <v>780</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -815,13 +744,6 @@
       <c r="H10" t="n">
         <v>-5.696695804595947</v>
       </c>
-      <c r="I10" t="n">
-        <v>130</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -852,13 +774,6 @@
       <c r="H11" t="n">
         <v>-9.122485280036926</v>
       </c>
-      <c r="I11" t="n">
-        <v>455</v>
-      </c>
-      <c r="J11" t="n">
-        <v>780</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -889,13 +804,6 @@
       <c r="H12" t="n">
         <v>-4.841521263122559</v>
       </c>
-      <c r="I12" t="n">
-        <v>130</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -926,15 +834,6 @@
       <c r="H13" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>130</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -965,13 +864,6 @@
       <c r="H14" t="n">
         <v>-7.061962246894836</v>
       </c>
-      <c r="I14" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>130</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,13 +894,6 @@
       <c r="H15" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I15" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J15" t="n">
-        <v>130</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1039,13 +924,6 @@
       <c r="H16" t="n">
         <v>-13.42748379707336</v>
       </c>
-      <c r="I16" t="n">
-        <v>780</v>
-      </c>
-      <c r="J16" t="n">
-        <v>130</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1076,13 +954,6 @@
       <c r="H17" t="n">
         <v>-8.854763507843018</v>
       </c>
-      <c r="I17" t="n">
-        <v>455</v>
-      </c>
-      <c r="J17" t="n">
-        <v>130</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1113,13 +984,6 @@
       <c r="H18" t="n">
         <v>-11.2671914100647</v>
       </c>
-      <c r="I18" t="n">
-        <v>130</v>
-      </c>
-      <c r="J18" t="n">
-        <v>130</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1150,13 +1014,6 @@
       <c r="H19" t="n">
         <v>-11.03928828239441</v>
       </c>
-      <c r="I19" t="n">
-        <v>130</v>
-      </c>
-      <c r="J19" t="n">
-        <v>780</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1187,13 +1044,6 @@
       <c r="H20" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I20" t="n">
-        <v>780</v>
-      </c>
-      <c r="J20" t="n">
-        <v>130</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1224,13 +1074,6 @@
       <c r="H21" t="n">
         <v>-12.21974325180054</v>
       </c>
-      <c r="I21" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J21" t="n">
-        <v>130</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1261,13 +1104,6 @@
       <c r="H22" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I22" t="n">
-        <v>780</v>
-      </c>
-      <c r="J22" t="n">
-        <v>780</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>axial_force</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motion_vector</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,11 @@
       <c r="H2" t="n">
         <v>-3.706376194953918</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,6 +544,11 @@
       <c r="H3" t="n">
         <v>-9.397506475448608</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,6 +579,11 @@
       <c r="H4" t="n">
         <v>-4.168585538864136</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +614,11 @@
       <c r="H5" t="n">
         <v>-4.317601203918457</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +649,11 @@
       <c r="H6" t="n">
         <v>-9.935503959655762</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -654,6 +684,11 @@
       <c r="H7" t="n">
         <v>-12.93161725997925</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -684,6 +719,11 @@
       <c r="H8" t="n">
         <v>-8.384076476097107</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -714,6 +754,11 @@
       <c r="H9" t="n">
         <v>-13.13253748416901</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,6 +789,11 @@
       <c r="H10" t="n">
         <v>-5.696695804595947</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -774,6 +824,11 @@
       <c r="H11" t="n">
         <v>-9.122485280036926</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -804,6 +859,11 @@
       <c r="H12" t="n">
         <v>-4.841521263122559</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -834,6 +894,11 @@
       <c r="H13" t="n">
         <v>-10.30704760551453</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -864,6 +929,11 @@
       <c r="H14" t="n">
         <v>-7.061962246894836</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -894,6 +964,11 @@
       <c r="H15" t="n">
         <v>-11.50406563282013</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -924,6 +999,11 @@
       <c r="H16" t="n">
         <v>-13.42748379707336</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[0.19598388671875, -0.5619964599609375, -2.0372467041015625]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -954,6 +1034,11 @@
       <c r="H17" t="n">
         <v>-8.854763507843018</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -984,6 +1069,11 @@
       <c r="H18" t="n">
         <v>-11.2671914100647</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1014,6 +1104,11 @@
       <c r="H19" t="n">
         <v>-11.03928828239441</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1044,6 +1139,11 @@
       <c r="H20" t="n">
         <v>-14.48587214946747</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1074,6 +1174,11 @@
       <c r="H21" t="n">
         <v>-12.21974325180054</v>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1103,6 +1208,11 @@
       </c>
       <c r="H22" t="n">
         <v>-8.396152496337891</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,733 +483,313 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3631</v>
+        <v>6562</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.5100074112415314, 2.1183736622333527, -3.7063761949539185]</t>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.299399845430327</v>
+        <v>12.03947311046226</v>
       </c>
       <c r="E2" t="n">
-        <v>3.310464066299402</v>
+        <v>9.926848374128314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7699828313986596</v>
+        <v>0.8245251501497953</v>
       </c>
       <c r="G2" t="n">
-        <v>2.178902139235545</v>
+        <v>2.629129490874901</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.706376194953918</v>
+        <v>-11.74889743328094</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3666</v>
+        <v>6427</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[5.336649119853973, 0.34455977380275726, -9.397506475448608]</t>
+          <t>[-0.2791014462709427, -1.3958299160003662, -5.224152207374573]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.81257014877868</v>
+        <v>5.41461033293521</v>
       </c>
       <c r="E3" t="n">
-        <v>5.518776645458949</v>
+        <v>4.929475292244854</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5104037772261129</v>
+        <v>0.9104025939337784</v>
       </c>
       <c r="G3" t="n">
-        <v>5.347760771216416</v>
+        <v>1.423460140542095</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.397506475448608</v>
+        <v>-5.224152207374573</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5131</v>
+        <v>6489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.9611110091209412, 1.400046467781067, -4.168585538864136]</t>
+          <t>[0.08745789527893066, -0.2358883023262024, -6.48811411857605]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.501218710374659</v>
+        <v>6.492989834451215</v>
       </c>
       <c r="E4" t="n">
-        <v>4.419375340419151</v>
+        <v>6.441562097988405</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9818175087189451</v>
+        <v>0.9920794983860995</v>
       </c>
       <c r="G4" t="n">
-        <v>1.698194477614303</v>
+        <v>0.251579360482847</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.168585538864136</v>
+        <v>-6.48811411857605</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4415</v>
+        <v>6017</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.11436110734939575, 1.6295432336628437, -4.317601203918457]</t>
+          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.616293943124576</v>
+        <v>5.075181099260022</v>
       </c>
       <c r="E5" t="n">
-        <v>4.221919814857523</v>
+        <v>5.007865432308868</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9145691038902696</v>
+        <v>0.9867363024817049</v>
       </c>
       <c r="G5" t="n">
-        <v>1.633551227617468</v>
+        <v>0.8120608520084311</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.317601203918457</v>
+        <v>-5.009792447090149</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4994</v>
+        <v>6202</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-1.7338434010744095, 1.567792497575283, -9.935503959655762]</t>
+          <t>[0.6958926767110825, 0.9939079508185387, -11.50406539440155]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.20678329285177</v>
+        <v>11.56787103277296</v>
       </c>
       <c r="E6" t="n">
-        <v>9.746318381369822</v>
+        <v>10.88950710546083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9548863830777687</v>
+        <v>0.9413579278857575</v>
       </c>
       <c r="G6" t="n">
-        <v>2.337559893329499</v>
+        <v>1.213309372007165</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.935503959655762</v>
+        <v>-11.50406539440155</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5269</v>
+        <v>6359</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-4.253422260284424, 3.40257129073143, -12.931617259979248]</t>
+          <t>[1.134434700012207, 1.7107899188995361, -11.039288759231567]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.03195700076743</v>
+        <v>11.22851907176082</v>
       </c>
       <c r="E7" t="n">
-        <v>11.31439732265882</v>
+        <v>10.80661470319371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8063306723388634</v>
+        <v>0.9624256443907919</v>
       </c>
       <c r="G7" t="n">
-        <v>5.446934212269578</v>
+        <v>2.052740664380201</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.93161725997925</v>
+        <v>-11.03928875923157</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5399</v>
+        <v>6727</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.6102482080459595, 0.2669351100921631, -8.384076476097107]</t>
+          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.410493183248418</v>
+        <v>14.66171466553992</v>
       </c>
       <c r="E8" t="n">
-        <v>8.285308395500536</v>
+        <v>14.16379430668922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9851156424456512</v>
+        <v>0.9660394182938929</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6660759929791944</v>
+        <v>2.263928264805835</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.384076476097107</v>
+        <v>-14.48587262630463</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5677</v>
+        <v>6670</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.16414400671556</v>
+        <v>12.45103562302613</v>
       </c>
       <c r="E9" t="n">
-        <v>13.05513052554926</v>
+        <v>11.82064111137415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9917189084903139</v>
+        <v>0.949370114202696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9116724501931796</v>
+        <v>2.388757615569407</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.13253748416901</v>
+        <v>-12.21974325180054</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5331</v>
+        <v>6748</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.7527332156896591, 0.5244466662406921, -5.696695804595947]</t>
+          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.770094859691177</v>
+        <v>13.80405384257204</v>
       </c>
       <c r="E10" t="n">
-        <v>5.362863309317337</v>
+        <v>3.228550702307688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9294237685382462</v>
+        <v>0.2338842443768771</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9174157180545093</v>
+        <v>10.95703069920265</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.696695804595947</v>
+        <v>-8.39615273475647</v>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1469</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5887</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[-0.35831569135189056, -0.3594629615545273, -9.122485280036926]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9.136593535880259</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.061768873467344</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9918104420297268</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5075468011903285</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-9.122485280036926</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2436</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5433</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[-0.44162964820861816, -0.36573115549981594, -4.841521263122559]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4.875358875564747</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.335273272866165</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.889221364727531</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5734073807338883</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-4.841521263122559</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2434</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6016</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11.52336749322326</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.361208832082269</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8123674644228325</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.152937806875973</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-10.30704760551453</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2444</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5582</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[-0.4570380374789238, 0.5276380777359009, -7.061962246894836]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>7.096379110880942</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.002407661744953</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7049239596112777</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.6980585281904539</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-7.061962246894836</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2443</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6202</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56787125518414</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.88950731166016</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9413579276117917</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.213309231928226</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-11.50406563282013</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1380</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6424</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[-5.876048386096954, -0.526165135204792, -13.427483797073364]</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14.6663599951019</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.48542529128526</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8512967972595105</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.899558829714109</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-13.42748379707336</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[0.19598388671875, -0.5619964599609375, -2.0372467041015625]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1476</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6488</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8.975588233176818</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.568802080930866</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.6204386761356414</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.467769515868813</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-8.854763507843018</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1355</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6561</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11.75285490435146</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.09789668287035</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8591867052771691</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.343650121005855</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-11.2671914100647</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6359</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11.2285186445667</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.80661422420243</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.962425638348259</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.052740891971373</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-11.03928828239441</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1341</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6727</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>14.66171423645678</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14.16379402614507</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9660394274310968</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.26392853703519</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-14.48587214946747</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1465</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>12.45103562302613</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11.82064111137415</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.949370114202696</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.388757615569407</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-12.21974325180054</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1374</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6748</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>13.8040533476533</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.22855057619759</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2338842436266335</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.95703025838193</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-8.396152496337891</v>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,313 +483,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6562</v>
+        <v>6727</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.03947311046226</v>
+        <v>14.66171466553992</v>
       </c>
       <c r="E2" t="n">
-        <v>9.926848374128314</v>
+        <v>14.16379430668922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.9660394182938929</v>
       </c>
       <c r="G2" t="n">
-        <v>2.629129490874901</v>
+        <v>2.263928264805835</v>
       </c>
       <c r="H2" t="n">
-        <v>-11.74889743328094</v>
+        <v>-14.48587262630463</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6427</v>
+        <v>6562</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.2791014462709427, -1.3958299160003662, -5.224152207374573]</t>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.41461033293521</v>
+        <v>12.03947311046226</v>
       </c>
       <c r="E3" t="n">
-        <v>4.929475292244854</v>
+        <v>9.926848374128314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9104025939337784</v>
+        <v>0.8245251501497953</v>
       </c>
       <c r="G3" t="n">
-        <v>1.423460140542095</v>
+        <v>2.629129490874901</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.224152207374573</v>
+        <v>-11.74889743328094</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6489</v>
+        <v>6670</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.08745789527893066, -0.2358883023262024, -6.48811411857605]</t>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.492989834451215</v>
+        <v>12.45103562302613</v>
       </c>
       <c r="E4" t="n">
-        <v>6.441562097988405</v>
+        <v>11.82064111137415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9920794983860995</v>
+        <v>0.949370114202696</v>
       </c>
       <c r="G4" t="n">
-        <v>0.251579360482847</v>
+        <v>2.388757615569407</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.48811411857605</v>
+        <v>-12.21974325180054</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6017</v>
+        <v>6748</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.075181099260022</v>
+        <v>13.80405384257204</v>
       </c>
       <c r="E5" t="n">
-        <v>5.007865432308868</v>
+        <v>3.228550702307688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9867363024817049</v>
+        <v>0.2338842443768771</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8120608520084311</v>
+        <v>10.95703069920265</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.009792447090149</v>
+        <v>-8.39615273475647</v>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2443</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6202</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.6958926767110825, 0.9939079508185387, -11.50406539440155]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>11.56787103277296</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.88950710546083</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9413579278857575</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.213309372007165</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-11.50406539440155</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6359</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[1.134434700012207, 1.7107899188995361, -11.039288759231567]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>11.22851907176082</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.80661470319371</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9624256443907919</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.052740664380201</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-11.03928875923157</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1341</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6727</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.66171466553992</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.16379430668922</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9660394182938929</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.263928264805835</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-14.48587262630463</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1465</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12.45103562302613</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.82064111137415</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.949370114202696</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.388757615569407</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-12.21974325180054</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1374</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6748</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13.80405384257204</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.228550702307688</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2338842443768771</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.95703069920265</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-8.39615273475647</v>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,138 +483,838 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E2" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G2" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6562</v>
+        <v>5178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.03947311046226</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E3" t="n">
-        <v>9.926848374128314</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G3" t="n">
-        <v>2.629129490874901</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.74889743328094</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E4" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G4" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.200785190113176</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9353107209185241</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.538939756016481</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.758346497848085</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8280229965304783</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.033683128043664</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-4.419668912887573</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7.995896765749374</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.949022122312232</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9941376627524844</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8884617097054888</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-7.946382880210876</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3.686563577311224</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.799045007488103</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7592558622112715</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6196689777840458</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3.634110808372498</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6017</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5.075181099260022</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.007865432308868</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9867363024817049</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8120608520084311</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-5.009792447090149</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6427</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5.414610218111335</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.929475198950758</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9104025960099864</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.423460141273367</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5.224152088165283</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6489</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.492989483308295</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.44156173786345</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9920794965744129</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2515795209212585</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-6.488113760948181</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6562</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>12.03947311046226</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.926848374128314</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8245251501497953</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.629129490874901</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-11.74889743328094</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>1374</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B25" t="n">
         <v>6748</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>13.80405384257204</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.228550702307688</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2338842443768771</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.95703069920265</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-8.39615273475647</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -483,70 +483,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5552</v>
+        <v>5178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.76515109110311</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E2" t="n">
-        <v>12.51972977569507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9807741158990991</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G2" t="n">
-        <v>2.547037365561873</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H2" t="n">
-        <v>-12.50846445560455</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5178</v>
+        <v>5552</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.066077660570116</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E3" t="n">
-        <v>7.079835093630851</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8777295969067627</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6219347271323936</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.042064785957336</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -697,31 +697,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.538939756016481</v>
+        <v>11.6745941511995</v>
       </c>
       <c r="E8" t="n">
-        <v>3.758346497848085</v>
+        <v>11.5522255221292</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8280229965304783</v>
+        <v>0.9895183826105229</v>
       </c>
       <c r="G8" t="n">
-        <v>1.033683128043664</v>
+        <v>1.378097746486022</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.419668912887573</v>
+        <v>-11.59297180175781</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
         </is>
       </c>
     </row>
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.995896765749374</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E9" t="n">
-        <v>7.949022122312232</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9941376627524844</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8884617097054888</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.946382880210876</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
     </row>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.686563577311224</v>
+        <v>10.94972148749287</v>
       </c>
       <c r="E11" t="n">
-        <v>2.799045007488103</v>
+        <v>9.907631183671697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7592558622112715</v>
+        <v>0.9048295150692662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6196689777840458</v>
+        <v>3.424356854137818</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.634110808372498</v>
+        <v>-10.40048944950104</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
         </is>
       </c>
     </row>
@@ -977,31 +977,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.075181099260022</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E16" t="n">
-        <v>5.007865432308868</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9867363024817049</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8120608520084311</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.009792447090149</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
     </row>
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.414610218111335</v>
+        <v>6.272394665041823</v>
       </c>
       <c r="E19" t="n">
-        <v>4.929475198950758</v>
+        <v>2.890896342806211</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9104025960099864</v>
+        <v>0.4608919714376639</v>
       </c>
       <c r="G19" t="n">
-        <v>1.423460141273367</v>
+        <v>2.926671511556731</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.224152088165283</v>
+        <v>-5.547749876976013</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
         </is>
       </c>
     </row>
@@ -1117,31 +1117,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.492989483308295</v>
+        <v>8.975588233176818</v>
       </c>
       <c r="E20" t="n">
-        <v>6.44156173786345</v>
+        <v>5.568802080930866</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9920794965744129</v>
+        <v>0.6204386761356414</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2515795209212585</v>
+        <v>1.467769515868813</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.488113760948181</v>
+        <v>-8.854763507843018</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
         </is>
       </c>
     </row>
@@ -1152,31 +1152,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.03947311046226</v>
+        <v>11.75285490435146</v>
       </c>
       <c r="E21" t="n">
-        <v>9.926848374128314</v>
+        <v>10.09789668287035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.8591867052771691</v>
       </c>
       <c r="G21" t="n">
-        <v>2.629129490874901</v>
+        <v>3.343650121005855</v>
       </c>
       <c r="H21" t="n">
-        <v>-11.74889743328094</v>
+        <v>-11.2671914100647</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
         </is>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces.xlsx
+++ b/results/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,138 +483,838 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E2" t="n">
-        <v>14.16379402614507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E3" t="n">
-        <v>10.09789668287035</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8591867052771691</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G3" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E4" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G4" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.200785190113176</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9353107209185241</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.5522255221292</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9895183826105229</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.907631183671697</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9048295150692662</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6426</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.272394665041823</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.890896342806211</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4608919714376639</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.926671511556731</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5.547749876976013</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>1374</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B25" t="n">
         <v>6748</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D25" t="n">
         <v>13.8040533476533</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E25" t="n">
         <v>3.22855057619759</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F25" t="n">
         <v>0.2338842436266335</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G25" t="n">
         <v>10.95703025838193</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H25" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>
